--- a/Code/Results/Cases/Case_0_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9771580107229619</v>
+        <v>1.109663917146452</v>
       </c>
       <c r="D2">
-        <v>0.9916865217430437</v>
+        <v>1.111241962773572</v>
       </c>
       <c r="E2">
-        <v>0.9922097283628225</v>
+        <v>1.108271293359297</v>
       </c>
       <c r="F2">
-        <v>0.9995836976971783</v>
+        <v>1.117314121119132</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043957970964529</v>
+        <v>1.031262405943017</v>
       </c>
       <c r="J2">
-        <v>1.000044067503798</v>
+        <v>1.114402818680321</v>
       </c>
       <c r="K2">
-        <v>1.003262904580775</v>
+        <v>1.113837281912491</v>
       </c>
       <c r="L2">
-        <v>1.003778671666074</v>
+        <v>1.110873942118266</v>
       </c>
       <c r="M2">
-        <v>1.011048835320353</v>
+        <v>1.11989458862937</v>
       </c>
       <c r="N2">
-        <v>1.001464244786312</v>
+        <v>1.115985398506637</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9960329928116221</v>
+        <v>1.11266461397181</v>
       </c>
       <c r="D3">
-        <v>1.008817132629108</v>
+        <v>1.11399711166576</v>
       </c>
       <c r="E3">
-        <v>1.008840213565359</v>
+        <v>1.110941694722924</v>
       </c>
       <c r="F3">
-        <v>1.016623065924121</v>
+        <v>1.120042146674648</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045294541289886</v>
+        <v>1.031350524314284</v>
       </c>
       <c r="J3">
-        <v>1.016632389762638</v>
+        <v>1.117066580033014</v>
       </c>
       <c r="K3">
-        <v>1.019338426080801</v>
+        <v>1.116411878131243</v>
       </c>
       <c r="L3">
-        <v>1.01936121810193</v>
+        <v>1.113363434384528</v>
       </c>
       <c r="M3">
-        <v>1.027047579455991</v>
+        <v>1.122443236909063</v>
       </c>
       <c r="N3">
-        <v>1.018076124365465</v>
+        <v>1.118652942705989</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.00742370362275</v>
+        <v>1.114594975957789</v>
       </c>
       <c r="D4">
-        <v>1.019163172563015</v>
+        <v>1.115769031894531</v>
       </c>
       <c r="E4">
-        <v>1.018884488791277</v>
+        <v>1.112658950624541</v>
       </c>
       <c r="F4">
-        <v>1.026914363382277</v>
+        <v>1.121796086414583</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046082946504894</v>
+        <v>1.031404225244571</v>
       </c>
       <c r="J4">
-        <v>1.026639397950634</v>
+        <v>1.118779015596356</v>
       </c>
       <c r="K4">
-        <v>1.029035688251863</v>
+        <v>1.11806670561324</v>
       </c>
       <c r="L4">
-        <v>1.028760214583159</v>
+        <v>1.114963352472252</v>
       </c>
       <c r="M4">
-        <v>1.036698455203773</v>
+        <v>1.124080834974883</v>
       </c>
       <c r="N4">
-        <v>1.028097343652908</v>
+        <v>1.12036781012425</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.012041340348979</v>
+        <v>1.115403873929366</v>
       </c>
       <c r="D5">
-        <v>1.023358771111892</v>
+        <v>1.116511420320558</v>
       </c>
       <c r="E5">
-        <v>1.022957720280968</v>
+        <v>1.113378397488971</v>
       </c>
       <c r="F5">
-        <v>1.031087663717537</v>
+        <v>1.12253081200276</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046397822360705</v>
+        <v>1.031426010716302</v>
       </c>
       <c r="J5">
-        <v>1.030694884827906</v>
+        <v>1.119496311918708</v>
       </c>
       <c r="K5">
-        <v>1.032965475504102</v>
+        <v>1.118759802342718</v>
       </c>
       <c r="L5">
-        <v>1.032568884250829</v>
+        <v>1.115633401261866</v>
       </c>
       <c r="M5">
-        <v>1.040609256910615</v>
+        <v>1.12476658240167</v>
       </c>
       <c r="N5">
-        <v>1.032158589786717</v>
+        <v>1.121086125089654</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.012807280392877</v>
+        <v>1.115539539656499</v>
       </c>
       <c r="D6">
-        <v>1.024054780520433</v>
+        <v>1.116635924429014</v>
       </c>
       <c r="E6">
-        <v>1.023633429011304</v>
+        <v>1.113499051853929</v>
       </c>
       <c r="F6">
-        <v>1.031779963467947</v>
+        <v>1.122654023371029</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046449763128058</v>
+        <v>1.031429622352942</v>
       </c>
       <c r="J6">
-        <v>1.031367499948831</v>
+        <v>1.119616597960679</v>
       </c>
       <c r="K6">
-        <v>1.033617230998872</v>
+        <v>1.118876026209575</v>
       </c>
       <c r="L6">
-        <v>1.033200537046982</v>
+        <v>1.115745757330273</v>
       </c>
       <c r="M6">
-        <v>1.041257848189652</v>
+        <v>1.124881566043929</v>
       </c>
       <c r="N6">
-        <v>1.032832160098264</v>
+        <v>1.121206581951601</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.007486046727459</v>
+        <v>1.114605794709837</v>
       </c>
       <c r="D7">
-        <v>1.019219812437821</v>
+        <v>1.115778961561522</v>
       </c>
       <c r="E7">
-        <v>1.018939476777295</v>
+        <v>1.112668573593524</v>
       </c>
       <c r="F7">
-        <v>1.02697070285077</v>
+        <v>1.121805914099582</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046087216990164</v>
+        <v>1.031404519443683</v>
       </c>
       <c r="J7">
-        <v>1.026694156641684</v>
+        <v>1.118788610315459</v>
       </c>
       <c r="K7">
-        <v>1.029088750468652</v>
+        <v>1.118075976905003</v>
       </c>
       <c r="L7">
-        <v>1.028811642422398</v>
+        <v>1.114972315657613</v>
       </c>
       <c r="M7">
-        <v>1.036751262019822</v>
+        <v>1.124090008482761</v>
       </c>
       <c r="N7">
-        <v>1.028152180107581</v>
+        <v>1.120377418468955</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9837249065205459</v>
+        <v>1.110680400782044</v>
       </c>
       <c r="D8">
-        <v>0.9976444500773636</v>
+        <v>1.112175366131243</v>
       </c>
       <c r="E8">
-        <v>0.9979936093527659</v>
+        <v>1.109176018801933</v>
       </c>
       <c r="F8">
-        <v>1.00550968319694</v>
+        <v>1.118238446465147</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044426675841689</v>
+        <v>1.031292875218688</v>
       </c>
       <c r="J8">
-        <v>1.005815983868826</v>
+        <v>1.115305409366931</v>
       </c>
       <c r="K8">
-        <v>1.008856423608709</v>
+        <v>1.114709719350563</v>
       </c>
       <c r="L8">
-        <v>1.009200827241046</v>
+        <v>1.111717584238815</v>
       </c>
       <c r="M8">
-        <v>1.016615535984096</v>
+        <v>1.12075834728555</v>
       </c>
       <c r="N8">
-        <v>1.007244357934626</v>
+        <v>1.116889270975551</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9339229470274324</v>
+        <v>1.103673395772726</v>
       </c>
       <c r="D9">
-        <v>0.9525290930393977</v>
+        <v>1.105739131032289</v>
       </c>
       <c r="E9">
-        <v>0.9542016182502638</v>
+        <v>1.102936871926895</v>
       </c>
       <c r="F9">
-        <v>0.9606493970514433</v>
+        <v>1.111862622786674</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040807185225919</v>
+        <v>1.031070558281898</v>
       </c>
       <c r="J9">
-        <v>0.9620460720320942</v>
+        <v>1.109078672524021</v>
       </c>
       <c r="K9">
-        <v>0.9664423593089601</v>
+        <v>1.10868982193841</v>
       </c>
       <c r="L9">
-        <v>0.9680841809629025</v>
+        <v>1.105895515226617</v>
       </c>
       <c r="M9">
-        <v>0.9744148942694817</v>
+        <v>1.11479608745897</v>
       </c>
       <c r="N9">
-        <v>0.9634122878026066</v>
+        <v>1.110653691452107</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8917289741414524</v>
+        <v>1.098936605961478</v>
       </c>
       <c r="D10">
-        <v>0.9144613605942498</v>
+        <v>1.101385807155698</v>
       </c>
       <c r="E10">
-        <v>0.9172664328421737</v>
+        <v>1.098716030942434</v>
       </c>
       <c r="F10">
-        <v>0.9228369906577248</v>
+        <v>1.107547446775642</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037688870076322</v>
+        <v>1.03090488898155</v>
       </c>
       <c r="J10">
-        <v>0.925010512626904</v>
+        <v>1.104863279816671</v>
       </c>
       <c r="K10">
-        <v>0.9305682183634488</v>
+        <v>1.104612979713878</v>
       </c>
       <c r="L10">
-        <v>0.9333094476478848</v>
+        <v>1.101951565035478</v>
       </c>
       <c r="M10">
-        <v>0.9387547526867841</v>
+        <v>1.110755489574353</v>
       </c>
       <c r="N10">
-        <v>0.9263241336550228</v>
+        <v>1.106432312403601</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8696556064768588</v>
+        <v>1.096868868471015</v>
       </c>
       <c r="D11">
-        <v>0.8946198582609849</v>
+        <v>1.099484917606227</v>
       </c>
       <c r="E11">
-        <v>0.8980240236660253</v>
+        <v>1.096872797509979</v>
       </c>
       <c r="F11">
-        <v>0.9031503496829507</v>
+        <v>1.105662584515994</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036063871933246</v>
+        <v>1.030828952181815</v>
       </c>
       <c r="J11">
-        <v>0.9056728033294337</v>
+        <v>1.103021715628051</v>
       </c>
       <c r="K11">
-        <v>0.9118461615429491</v>
+        <v>1.102831597089646</v>
       </c>
       <c r="L11">
-        <v>0.9151644650503683</v>
+        <v>1.100227994154452</v>
       </c>
       <c r="M11">
-        <v>0.9201631365537306</v>
+        <v>1.108989296252733</v>
       </c>
       <c r="N11">
-        <v>0.906958962592284</v>
+        <v>1.104588132982602</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8605922631160358</v>
+        <v>1.096098214354031</v>
       </c>
       <c r="D12">
-        <v>0.8864897473039144</v>
+        <v>1.098776368096936</v>
       </c>
       <c r="E12">
-        <v>0.8901415332918712</v>
+        <v>1.096185710337711</v>
       </c>
       <c r="F12">
-        <v>0.8950888586826011</v>
+        <v>1.104959915621905</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035400370336769</v>
+        <v>1.030800109420914</v>
       </c>
       <c r="J12">
-        <v>0.8977425593272206</v>
+        <v>1.102335143092599</v>
       </c>
       <c r="K12">
-        <v>0.9041707361374949</v>
+        <v>1.102167409723844</v>
       </c>
       <c r="L12">
-        <v>0.9077265972198483</v>
+        <v>1.099585323562275</v>
       </c>
       <c r="M12">
-        <v>0.9125456554530644</v>
+        <v>1.108330676094598</v>
       </c>
       <c r="N12">
-        <v>0.8990174567339762</v>
+        <v>1.103900585435399</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8625830349358207</v>
+        <v>1.096263641748833</v>
       </c>
       <c r="D13">
-        <v>0.8882746469873676</v>
+        <v>1.098928467819781</v>
       </c>
       <c r="E13">
-        <v>0.8918719550353843</v>
+        <v>1.096333204177667</v>
       </c>
       <c r="F13">
-        <v>0.8968584195998452</v>
+        <v>1.105110757201204</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035545881154015</v>
+        <v>1.030806325179219</v>
       </c>
       <c r="J13">
-        <v>0.8994839048208138</v>
+        <v>1.10248253133915</v>
       </c>
       <c r="K13">
-        <v>0.9058560006617916</v>
+        <v>1.102309994824835</v>
       </c>
       <c r="L13">
-        <v>0.9093596471036896</v>
+        <v>1.099723291258241</v>
       </c>
       <c r="M13">
-        <v>0.9142179604902464</v>
+        <v>1.108472070377202</v>
       </c>
       <c r="N13">
-        <v>0.9007612751379052</v>
+        <v>1.104048182990166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8689266519706298</v>
+        <v>1.096805219671215</v>
       </c>
       <c r="D14">
-        <v>0.8939655844776775</v>
+        <v>1.099426399690961</v>
       </c>
       <c r="E14">
-        <v>0.8973896284274756</v>
+        <v>1.096816052718061</v>
       </c>
       <c r="F14">
-        <v>0.9025014814173749</v>
+        <v>1.105604554169286</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036010412673279</v>
+        <v>1.030826581045043</v>
       </c>
       <c r="J14">
-        <v>0.9050347543812557</v>
+        <v>1.102965015536486</v>
       </c>
       <c r="K14">
-        <v>0.9112285607783702</v>
+        <v>1.102776746713346</v>
       </c>
       <c r="L14">
-        <v>0.9145659561328094</v>
+        <v>1.100174921470785</v>
       </c>
       <c r="M14">
-        <v>0.919550097308635</v>
+        <v>1.108934907582771</v>
       </c>
       <c r="N14">
-        <v>0.9063200075414142</v>
+        <v>1.104531352370403</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8727077839516691</v>
+        <v>1.097138555598367</v>
       </c>
       <c r="D15">
-        <v>0.8973600449191883</v>
+        <v>1.099732861324502</v>
       </c>
       <c r="E15">
-        <v>0.9006810462956482</v>
+        <v>1.097113227229177</v>
       </c>
       <c r="F15">
-        <v>0.9058681135817694</v>
+        <v>1.105908458562147</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036287874821563</v>
+        <v>1.030838976854376</v>
       </c>
       <c r="J15">
-        <v>0.9083447705518717</v>
+        <v>1.103261951544903</v>
       </c>
       <c r="K15">
-        <v>0.9144325965625403</v>
+        <v>1.103063993726481</v>
       </c>
       <c r="L15">
-        <v>0.9176709876291944</v>
+        <v>1.100452857285128</v>
       </c>
       <c r="M15">
-        <v>0.9227306555872791</v>
+        <v>1.109219732753995</v>
       </c>
       <c r="N15">
-        <v>0.9096347243146568</v>
+        <v>1.104828710062012</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8930935627079637</v>
+        <v>1.09907347515443</v>
       </c>
       <c r="D16">
-        <v>0.9156897643750738</v>
+        <v>1.101511620913149</v>
       </c>
       <c r="E16">
-        <v>0.9184579692789496</v>
+        <v>1.098838024594939</v>
       </c>
       <c r="F16">
-        <v>0.9240563522727067</v>
+        <v>1.107672186606111</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037789636969254</v>
+        <v>1.030909839699117</v>
       </c>
       <c r="J16">
-        <v>0.9262069720213771</v>
+        <v>1.104985148003806</v>
       </c>
       <c r="K16">
-        <v>0.931726826556226</v>
+        <v>1.104730858050522</v>
       </c>
       <c r="L16">
-        <v>0.9344324386714206</v>
+        <v>1.102065612473671</v>
       </c>
       <c r="M16">
-        <v>0.939905759778933</v>
+        <v>1.110872349302365</v>
       </c>
       <c r="N16">
-        <v>0.9275222921590719</v>
+        <v>1.106554353657539</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9047155817126872</v>
+        <v>1.100282665340999</v>
       </c>
       <c r="D17">
-        <v>0.9261597918820595</v>
+        <v>1.102623077760878</v>
       </c>
       <c r="E17">
-        <v>0.9286147189472771</v>
+        <v>1.09991571192859</v>
       </c>
       <c r="F17">
-        <v>0.9344516728826457</v>
+        <v>1.108774083902495</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038648679365718</v>
+        <v>1.030953161692707</v>
       </c>
       <c r="J17">
-        <v>0.9364011064974217</v>
+        <v>1.106061645209735</v>
       </c>
       <c r="K17">
-        <v>0.9415994640188211</v>
+        <v>1.105772071939199</v>
       </c>
       <c r="L17">
-        <v>0.9440019448536444</v>
+        <v>1.103072958834656</v>
       </c>
       <c r="M17">
-        <v>0.9497156630043406</v>
+        <v>1.111904491543604</v>
       </c>
       <c r="N17">
-        <v>0.937730903475356</v>
+        <v>1.107632379612977</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9111535749461654</v>
+        <v>1.100986363312422</v>
       </c>
       <c r="D18">
-        <v>0.9319654718713893</v>
+        <v>1.103269846550508</v>
       </c>
       <c r="E18">
-        <v>0.9342473769733727</v>
+        <v>1.10054281134174</v>
       </c>
       <c r="F18">
-        <v>0.9402176544729135</v>
+        <v>1.109415229316852</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039124885486432</v>
+        <v>1.03097802572104</v>
       </c>
       <c r="J18">
-        <v>0.9420509783186723</v>
+        <v>1.106687983996954</v>
       </c>
       <c r="K18">
-        <v>0.9470718720622417</v>
+        <v>1.106377848541281</v>
       </c>
       <c r="L18">
-        <v>0.9493065749650792</v>
+        <v>1.103659006822066</v>
       </c>
       <c r="M18">
-        <v>0.9551547825322635</v>
+        <v>1.11250492803532</v>
       </c>
       <c r="N18">
-        <v>0.9433887987626426</v>
+        <v>1.108259607873116</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.913296735881288</v>
+        <v>1.101226037333383</v>
       </c>
       <c r="D19">
-        <v>0.9338990239785705</v>
+        <v>1.103490121987659</v>
       </c>
       <c r="E19">
-        <v>0.9361234075873729</v>
+        <v>1.10075638466616</v>
       </c>
       <c r="F19">
-        <v>0.942138242854307</v>
+        <v>1.109633579245938</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039283414512779</v>
+        <v>1.030986435182647</v>
       </c>
       <c r="J19">
-        <v>0.9439321865275935</v>
+        <v>1.106901286749591</v>
       </c>
       <c r="K19">
-        <v>0.9488940956649937</v>
+        <v>1.106584143086504</v>
       </c>
       <c r="L19">
-        <v>0.9510729646934526</v>
+        <v>1.103858578709032</v>
       </c>
       <c r="M19">
-        <v>0.9569661425241697</v>
+        <v>1.112709393436663</v>
       </c>
       <c r="N19">
-        <v>0.9452726785029977</v>
+        <v>1.108473213540127</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9035053768987479</v>
+        <v>1.100153097108677</v>
       </c>
       <c r="D20">
-        <v>0.9250689024713858</v>
+        <v>1.102503987360159</v>
       </c>
       <c r="E20">
-        <v>0.9275563937076243</v>
+        <v>1.099800241781375</v>
       </c>
       <c r="F20">
-        <v>0.9333683762267361</v>
+        <v>1.108656024051127</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038559177158115</v>
+        <v>1.030948555577378</v>
       </c>
       <c r="J20">
-        <v>0.9353392672802995</v>
+        <v>1.105946309637092</v>
       </c>
       <c r="K20">
-        <v>0.9405710322620914</v>
+        <v>1.105660520053356</v>
       </c>
       <c r="L20">
-        <v>0.9430050619117984</v>
+        <v>1.102965037933165</v>
       </c>
       <c r="M20">
-        <v>0.948693601771108</v>
+        <v>1.111793917996838</v>
       </c>
       <c r="N20">
-        <v>0.9366675563247511</v>
+        <v>1.107516880250592</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8670860789448884</v>
+        <v>1.096645811171409</v>
       </c>
       <c r="D21">
-        <v>0.8923138672236887</v>
+        <v>1.099279840207658</v>
       </c>
       <c r="E21">
-        <v>0.8957881320415038</v>
+        <v>1.096673933599958</v>
       </c>
       <c r="F21">
-        <v>0.9008635000546471</v>
+        <v>1.105459214307723</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035875501347503</v>
+        <v>1.030820633810166</v>
       </c>
       <c r="J21">
-        <v>0.9034238873153679</v>
+        <v>1.102823006632003</v>
       </c>
       <c r="K21">
-        <v>0.9096693599657616</v>
+        <v>1.102639369701784</v>
       </c>
       <c r="L21">
-        <v>0.9130549723276735</v>
+        <v>1.100041996210248</v>
       </c>
       <c r="M21">
-        <v>0.9180024900981553</v>
+        <v>1.108798685403352</v>
       </c>
       <c r="N21">
-        <v>0.9047068528595239</v>
+        <v>1.104389141796987</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8387849277810668</v>
+        <v>1.09442552246328</v>
       </c>
       <c r="D22">
-        <v>0.8669722018094626</v>
+        <v>1.097238327995991</v>
       </c>
       <c r="E22">
-        <v>0.8712242436276026</v>
+        <v>1.094694205827996</v>
       </c>
       <c r="F22">
-        <v>0.8757497346894346</v>
+        <v>1.103434470552045</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033816294729059</v>
+        <v>1.030736519240048</v>
       </c>
       <c r="J22">
-        <v>0.878689355589044</v>
+        <v>1.100844557651044</v>
       </c>
       <c r="K22">
-        <v>0.8857362388998852</v>
+        <v>1.100725329258794</v>
       </c>
       <c r="L22">
-        <v>0.8898655298837077</v>
+        <v>1.098189890184713</v>
       </c>
       <c r="M22">
-        <v>0.8942621655022339</v>
+        <v>1.10690050839386</v>
       </c>
       <c r="N22">
-        <v>0.8799371952610585</v>
+        <v>1.102407883191544</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8544835519911325</v>
+        <v>1.095604006321375</v>
       </c>
       <c r="D23">
-        <v>0.8810159632338588</v>
+        <v>1.098321964344612</v>
       </c>
       <c r="E23">
-        <v>0.8848352361111825</v>
+        <v>1.095745062640598</v>
       </c>
       <c r="F23">
-        <v>0.8896631050659061</v>
+        <v>1.104509257019102</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034954740777021</v>
+        <v>1.030781461088725</v>
       </c>
       <c r="J23">
-        <v>0.8924012051253757</v>
+        <v>1.101894795034212</v>
       </c>
       <c r="K23">
-        <v>0.899001868757567</v>
+        <v>1.101741404346822</v>
       </c>
       <c r="L23">
-        <v>0.9027180819436512</v>
+        <v>1.099173108131329</v>
       </c>
       <c r="M23">
-        <v>0.9074173930533803</v>
+        <v>1.107908214574475</v>
       </c>
       <c r="N23">
-        <v>0.8936685171965026</v>
+        <v>1.10345961203226</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9040532516645039</v>
+        <v>1.100211648361081</v>
       </c>
       <c r="D24">
-        <v>0.9255627436025599</v>
+        <v>1.102557803894004</v>
       </c>
       <c r="E24">
-        <v>0.9280354910364108</v>
+        <v>1.099852422392712</v>
       </c>
       <c r="F24">
-        <v>0.9338587748107908</v>
+        <v>1.108709375070789</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038599695007051</v>
+        <v>1.030950638133713</v>
       </c>
       <c r="J24">
-        <v>0.9358199663359466</v>
+        <v>1.105998429645169</v>
       </c>
       <c r="K24">
-        <v>0.9410366054072212</v>
+        <v>1.105710930320843</v>
       </c>
       <c r="L24">
-        <v>0.9434563520893083</v>
+        <v>1.103013807435717</v>
       </c>
       <c r="M24">
-        <v>0.9491562863773078</v>
+        <v>1.111843886345795</v>
       </c>
       <c r="N24">
-        <v>0.9371489380281941</v>
+        <v>1.107569074275059</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9480211994658557</v>
+        <v>1.105496039281522</v>
       </c>
       <c r="D25">
-        <v>0.9652832385818975</v>
+        <v>1.107413730197124</v>
       </c>
       <c r="E25">
-        <v>0.9665801022102725</v>
+        <v>1.104560336963234</v>
       </c>
       <c r="F25">
-        <v>0.9733275720922508</v>
+        <v>1.113521983335021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041843733407767</v>
+        <v>1.03113109035066</v>
       </c>
       <c r="J25">
-        <v>0.9744340669864434</v>
+        <v>1.110699420692694</v>
       </c>
       <c r="K25">
-        <v>0.9784455072815907</v>
+        <v>1.110256991706428</v>
       </c>
       <c r="L25">
-        <v>0.9797203641770984</v>
+        <v>1.10741137386605</v>
       </c>
       <c r="M25">
-        <v>0.9863545537510215</v>
+        <v>1.116348745004027</v>
       </c>
       <c r="N25">
-        <v>0.9758178751307139</v>
+        <v>1.112276741269082</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_201/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_201/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.109663917146452</v>
+        <v>0.977158010722959</v>
       </c>
       <c r="D2">
-        <v>1.111241962773572</v>
+        <v>0.9916865217430408</v>
       </c>
       <c r="E2">
-        <v>1.108271293359297</v>
+        <v>0.99220972836282</v>
       </c>
       <c r="F2">
-        <v>1.117314121119132</v>
+        <v>0.9995836976971755</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031262405943017</v>
+        <v>1.043957970964528</v>
       </c>
       <c r="J2">
-        <v>1.114402818680321</v>
+        <v>1.000044067503796</v>
       </c>
       <c r="K2">
-        <v>1.113837281912491</v>
+        <v>1.003262904580772</v>
       </c>
       <c r="L2">
-        <v>1.110873942118266</v>
+        <v>1.003778671666072</v>
       </c>
       <c r="M2">
-        <v>1.11989458862937</v>
+        <v>1.01104883532035</v>
       </c>
       <c r="N2">
-        <v>1.115985398506637</v>
+        <v>1.001464244786309</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.11266461397181</v>
+        <v>0.9960329928116221</v>
       </c>
       <c r="D3">
-        <v>1.11399711166576</v>
+        <v>1.008817132629108</v>
       </c>
       <c r="E3">
-        <v>1.110941694722924</v>
+        <v>1.008840213565359</v>
       </c>
       <c r="F3">
-        <v>1.120042146674648</v>
+        <v>1.016623065924121</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031350524314284</v>
+        <v>1.045294541289886</v>
       </c>
       <c r="J3">
-        <v>1.117066580033014</v>
+        <v>1.016632389762638</v>
       </c>
       <c r="K3">
-        <v>1.116411878131243</v>
+        <v>1.019338426080802</v>
       </c>
       <c r="L3">
-        <v>1.113363434384528</v>
+        <v>1.01936121810193</v>
       </c>
       <c r="M3">
-        <v>1.122443236909063</v>
+        <v>1.02704757945599</v>
       </c>
       <c r="N3">
-        <v>1.118652942705989</v>
+        <v>1.018076124365466</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.114594975957789</v>
+        <v>1.00742370362275</v>
       </c>
       <c r="D4">
-        <v>1.115769031894531</v>
+        <v>1.019163172563015</v>
       </c>
       <c r="E4">
-        <v>1.112658950624541</v>
+        <v>1.018884488791277</v>
       </c>
       <c r="F4">
-        <v>1.121796086414583</v>
+        <v>1.026914363382277</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.031404225244571</v>
+        <v>1.046082946504894</v>
       </c>
       <c r="J4">
-        <v>1.118779015596356</v>
+        <v>1.026639397950633</v>
       </c>
       <c r="K4">
-        <v>1.11806670561324</v>
+        <v>1.029035688251863</v>
       </c>
       <c r="L4">
-        <v>1.114963352472252</v>
+        <v>1.028760214583159</v>
       </c>
       <c r="M4">
-        <v>1.124080834974883</v>
+        <v>1.036698455203773</v>
       </c>
       <c r="N4">
-        <v>1.12036781012425</v>
+        <v>1.028097343652908</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.115403873929366</v>
+        <v>1.012041340348977</v>
       </c>
       <c r="D5">
-        <v>1.116511420320558</v>
+        <v>1.023358771111891</v>
       </c>
       <c r="E5">
-        <v>1.113378397488971</v>
+        <v>1.022957720280967</v>
       </c>
       <c r="F5">
-        <v>1.12253081200276</v>
+        <v>1.031087663717536</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.031426010716302</v>
+        <v>1.046397822360705</v>
       </c>
       <c r="J5">
-        <v>1.119496311918708</v>
+        <v>1.030694884827904</v>
       </c>
       <c r="K5">
-        <v>1.118759802342718</v>
+        <v>1.032965475504101</v>
       </c>
       <c r="L5">
-        <v>1.115633401261866</v>
+        <v>1.032568884250828</v>
       </c>
       <c r="M5">
-        <v>1.12476658240167</v>
+        <v>1.040609256910614</v>
       </c>
       <c r="N5">
-        <v>1.121086125089654</v>
+        <v>1.032158589786715</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.115539539656499</v>
+        <v>1.012807280392878</v>
       </c>
       <c r="D6">
-        <v>1.116635924429014</v>
+        <v>1.024054780520433</v>
       </c>
       <c r="E6">
-        <v>1.113499051853929</v>
+        <v>1.023633429011305</v>
       </c>
       <c r="F6">
-        <v>1.122654023371029</v>
+        <v>1.031779963467948</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.031429622352942</v>
+        <v>1.046449763128058</v>
       </c>
       <c r="J6">
-        <v>1.119616597960679</v>
+        <v>1.031367499948832</v>
       </c>
       <c r="K6">
-        <v>1.118876026209575</v>
+        <v>1.033617230998872</v>
       </c>
       <c r="L6">
-        <v>1.115745757330273</v>
+        <v>1.033200537046983</v>
       </c>
       <c r="M6">
-        <v>1.124881566043929</v>
+        <v>1.041257848189652</v>
       </c>
       <c r="N6">
-        <v>1.121206581951601</v>
+        <v>1.032832160098266</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.114605794709837</v>
+        <v>1.007486046727459</v>
       </c>
       <c r="D7">
-        <v>1.115778961561522</v>
+        <v>1.019219812437821</v>
       </c>
       <c r="E7">
-        <v>1.112668573593524</v>
+        <v>1.018939476777295</v>
       </c>
       <c r="F7">
-        <v>1.121805914099582</v>
+        <v>1.02697070285077</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.031404519443683</v>
+        <v>1.046087216990164</v>
       </c>
       <c r="J7">
-        <v>1.118788610315459</v>
+        <v>1.026694156641683</v>
       </c>
       <c r="K7">
-        <v>1.118075976905003</v>
+        <v>1.029088750468652</v>
       </c>
       <c r="L7">
-        <v>1.114972315657613</v>
+        <v>1.028811642422398</v>
       </c>
       <c r="M7">
-        <v>1.124090008482761</v>
+        <v>1.036751262019821</v>
       </c>
       <c r="N7">
-        <v>1.120377418468955</v>
+        <v>1.02815218010758</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.110680400782044</v>
+        <v>0.9837249065205436</v>
       </c>
       <c r="D8">
-        <v>1.112175366131243</v>
+        <v>0.9976444500773615</v>
       </c>
       <c r="E8">
-        <v>1.109176018801933</v>
+        <v>0.9979936093527635</v>
       </c>
       <c r="F8">
-        <v>1.118238446465147</v>
+        <v>1.005509683196938</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.031292875218688</v>
+        <v>1.044426675841689</v>
       </c>
       <c r="J8">
-        <v>1.115305409366931</v>
+        <v>1.005815983868823</v>
       </c>
       <c r="K8">
-        <v>1.114709719350563</v>
+        <v>1.008856423608707</v>
       </c>
       <c r="L8">
-        <v>1.111717584238815</v>
+        <v>1.009200827241043</v>
       </c>
       <c r="M8">
-        <v>1.12075834728555</v>
+        <v>1.016615535984093</v>
       </c>
       <c r="N8">
-        <v>1.116889270975551</v>
+        <v>1.007244357934623</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.103673395772726</v>
+        <v>0.9339229470274318</v>
       </c>
       <c r="D9">
-        <v>1.105739131032289</v>
+        <v>0.9525290930393974</v>
       </c>
       <c r="E9">
-        <v>1.102936871926895</v>
+        <v>0.9542016182502635</v>
       </c>
       <c r="F9">
-        <v>1.111862622786674</v>
+        <v>0.9606493970514429</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031070558281898</v>
+        <v>1.040807185225919</v>
       </c>
       <c r="J9">
-        <v>1.109078672524021</v>
+        <v>0.9620460720320938</v>
       </c>
       <c r="K9">
-        <v>1.10868982193841</v>
+        <v>0.9664423593089597</v>
       </c>
       <c r="L9">
-        <v>1.105895515226617</v>
+        <v>0.9680841809629022</v>
       </c>
       <c r="M9">
-        <v>1.11479608745897</v>
+        <v>0.9744148942694817</v>
       </c>
       <c r="N9">
-        <v>1.110653691452107</v>
+        <v>0.9634122878026061</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.098936605961478</v>
+        <v>0.8917289741414497</v>
       </c>
       <c r="D10">
-        <v>1.101385807155698</v>
+        <v>0.9144613605942472</v>
       </c>
       <c r="E10">
-        <v>1.098716030942434</v>
+        <v>0.9172664328421711</v>
       </c>
       <c r="F10">
-        <v>1.107547446775642</v>
+        <v>0.922836990657722</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03090488898155</v>
+        <v>1.037688870076322</v>
       </c>
       <c r="J10">
-        <v>1.104863279816671</v>
+        <v>0.9250105126269015</v>
       </c>
       <c r="K10">
-        <v>1.104612979713878</v>
+        <v>0.9305682183634463</v>
       </c>
       <c r="L10">
-        <v>1.101951565035478</v>
+        <v>0.9333094476478823</v>
       </c>
       <c r="M10">
-        <v>1.110755489574353</v>
+        <v>0.9387547526867814</v>
       </c>
       <c r="N10">
-        <v>1.106432312403601</v>
+        <v>0.9263241336550206</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.096868868471015</v>
+        <v>0.8696556064768531</v>
       </c>
       <c r="D11">
-        <v>1.099484917606227</v>
+        <v>0.8946198582609797</v>
       </c>
       <c r="E11">
-        <v>1.096872797509979</v>
+        <v>0.8980240236660204</v>
       </c>
       <c r="F11">
-        <v>1.105662584515994</v>
+        <v>0.9031503496829455</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030828952181815</v>
+        <v>1.036063871933246</v>
       </c>
       <c r="J11">
-        <v>1.103021715628051</v>
+        <v>0.9056728033294283</v>
       </c>
       <c r="K11">
-        <v>1.102831597089646</v>
+        <v>0.9118461615429441</v>
       </c>
       <c r="L11">
-        <v>1.100227994154452</v>
+        <v>0.9151644650503634</v>
       </c>
       <c r="M11">
-        <v>1.108989296252733</v>
+        <v>0.9201631365537255</v>
       </c>
       <c r="N11">
-        <v>1.104588132982602</v>
+        <v>0.9069589625922789</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.096098214354031</v>
+        <v>0.8605922631160315</v>
       </c>
       <c r="D12">
-        <v>1.098776368096936</v>
+        <v>0.8864897473039102</v>
       </c>
       <c r="E12">
-        <v>1.096185710337711</v>
+        <v>0.8901415332918675</v>
       </c>
       <c r="F12">
-        <v>1.104959915621905</v>
+        <v>0.8950888586825968</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030800109420914</v>
+        <v>1.035400370336768</v>
       </c>
       <c r="J12">
-        <v>1.102335143092599</v>
+        <v>0.8977425593272167</v>
       </c>
       <c r="K12">
-        <v>1.102167409723844</v>
+        <v>0.904170736137491</v>
       </c>
       <c r="L12">
-        <v>1.099585323562275</v>
+        <v>0.9077265972198445</v>
       </c>
       <c r="M12">
-        <v>1.108330676094598</v>
+        <v>0.9125456554530604</v>
       </c>
       <c r="N12">
-        <v>1.103900585435399</v>
+        <v>0.8990174567339719</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.096263641748833</v>
+        <v>0.862583034935827</v>
       </c>
       <c r="D13">
-        <v>1.098928467819781</v>
+        <v>0.8882746469873736</v>
       </c>
       <c r="E13">
-        <v>1.096333204177667</v>
+        <v>0.8918719550353895</v>
       </c>
       <c r="F13">
-        <v>1.105110757201204</v>
+        <v>0.896858419599851</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030806325179219</v>
+        <v>1.035545881154015</v>
       </c>
       <c r="J13">
-        <v>1.10248253133915</v>
+        <v>0.8994839048208196</v>
       </c>
       <c r="K13">
-        <v>1.102309994824835</v>
+        <v>0.9058560006617971</v>
       </c>
       <c r="L13">
-        <v>1.099723291258241</v>
+        <v>0.9093596471036945</v>
       </c>
       <c r="M13">
-        <v>1.108472070377202</v>
+        <v>0.9142179604902516</v>
       </c>
       <c r="N13">
-        <v>1.104048182990166</v>
+        <v>0.9007612751379113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.096805219671215</v>
+        <v>0.8689266519706338</v>
       </c>
       <c r="D14">
-        <v>1.099426399690961</v>
+        <v>0.893965584477681</v>
       </c>
       <c r="E14">
-        <v>1.096816052718061</v>
+        <v>0.8973896284274792</v>
       </c>
       <c r="F14">
-        <v>1.105604554169286</v>
+        <v>0.9025014814173782</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030826581045043</v>
+        <v>1.036010412673279</v>
       </c>
       <c r="J14">
-        <v>1.102965015536486</v>
+        <v>0.9050347543812595</v>
       </c>
       <c r="K14">
-        <v>1.102776746713346</v>
+        <v>0.9112285607783739</v>
       </c>
       <c r="L14">
-        <v>1.100174921470785</v>
+        <v>0.9145659561328129</v>
       </c>
       <c r="M14">
-        <v>1.108934907582771</v>
+        <v>0.9195500973086383</v>
       </c>
       <c r="N14">
-        <v>1.104531352370403</v>
+        <v>0.9063200075414179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.097138555598367</v>
+        <v>0.8727077839516697</v>
       </c>
       <c r="D15">
-        <v>1.099732861324502</v>
+        <v>0.8973600449191885</v>
       </c>
       <c r="E15">
-        <v>1.097113227229177</v>
+        <v>0.9006810462956484</v>
       </c>
       <c r="F15">
-        <v>1.105908458562147</v>
+        <v>0.9058681135817698</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030838976854376</v>
+        <v>1.036287874821563</v>
       </c>
       <c r="J15">
-        <v>1.103261951544903</v>
+        <v>0.9083447705518721</v>
       </c>
       <c r="K15">
-        <v>1.103063993726481</v>
+        <v>0.9144325965625407</v>
       </c>
       <c r="L15">
-        <v>1.100452857285128</v>
+        <v>0.9176709876291946</v>
       </c>
       <c r="M15">
-        <v>1.109219732753995</v>
+        <v>0.9227306555872793</v>
       </c>
       <c r="N15">
-        <v>1.104828710062012</v>
+        <v>0.9096347243146573</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>1.09907347515443</v>
+        <v>0.8930935627079625</v>
       </c>
       <c r="D16">
-        <v>1.101511620913149</v>
+        <v>0.9156897643750727</v>
       </c>
       <c r="E16">
-        <v>1.098838024594939</v>
+        <v>0.9184579692789486</v>
       </c>
       <c r="F16">
-        <v>1.107672186606111</v>
+        <v>0.9240563522727059</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030909839699117</v>
+        <v>1.037789636969254</v>
       </c>
       <c r="J16">
-        <v>1.104985148003806</v>
+        <v>0.9262069720213759</v>
       </c>
       <c r="K16">
-        <v>1.104730858050522</v>
+        <v>0.9317268265562251</v>
       </c>
       <c r="L16">
-        <v>1.102065612473671</v>
+        <v>0.9344324386714197</v>
       </c>
       <c r="M16">
-        <v>1.110872349302365</v>
+        <v>0.9399057597789321</v>
       </c>
       <c r="N16">
-        <v>1.106554353657539</v>
+        <v>0.927522292159071</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.100282665340999</v>
+        <v>0.904715581712683</v>
       </c>
       <c r="D17">
-        <v>1.102623077760878</v>
+        <v>0.9261597918820555</v>
       </c>
       <c r="E17">
-        <v>1.09991571192859</v>
+        <v>0.9286147189472729</v>
       </c>
       <c r="F17">
-        <v>1.108774083902495</v>
+        <v>0.9344516728826415</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.030953161692707</v>
+        <v>1.038648679365717</v>
       </c>
       <c r="J17">
-        <v>1.106061645209735</v>
+        <v>0.9364011064974176</v>
       </c>
       <c r="K17">
-        <v>1.105772071939199</v>
+        <v>0.9415994640188173</v>
       </c>
       <c r="L17">
-        <v>1.103072958834656</v>
+        <v>0.9440019448536406</v>
       </c>
       <c r="M17">
-        <v>1.111904491543604</v>
+        <v>0.9497156630043367</v>
       </c>
       <c r="N17">
-        <v>1.107632379612977</v>
+        <v>0.937730903475352</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.100986363312422</v>
+        <v>0.9111535749461595</v>
       </c>
       <c r="D18">
-        <v>1.103269846550508</v>
+        <v>0.9319654718713838</v>
       </c>
       <c r="E18">
-        <v>1.10054281134174</v>
+        <v>0.9342473769733675</v>
       </c>
       <c r="F18">
-        <v>1.109415229316852</v>
+        <v>0.9402176544729086</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03097802572104</v>
+        <v>1.039124885486432</v>
       </c>
       <c r="J18">
-        <v>1.106687983996954</v>
+        <v>0.9420509783186669</v>
       </c>
       <c r="K18">
-        <v>1.106377848541281</v>
+        <v>0.9470718720622366</v>
       </c>
       <c r="L18">
-        <v>1.103659006822066</v>
+        <v>0.9493065749650741</v>
       </c>
       <c r="M18">
-        <v>1.11250492803532</v>
+        <v>0.9551547825322588</v>
       </c>
       <c r="N18">
-        <v>1.108259607873116</v>
+        <v>0.943388798762637</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.101226037333383</v>
+        <v>0.9132967358812892</v>
       </c>
       <c r="D19">
-        <v>1.103490121987659</v>
+        <v>0.9338990239785717</v>
       </c>
       <c r="E19">
-        <v>1.10075638466616</v>
+        <v>0.936123407587374</v>
       </c>
       <c r="F19">
-        <v>1.109633579245938</v>
+        <v>0.9421382428543081</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030986435182647</v>
+        <v>1.039283414512779</v>
       </c>
       <c r="J19">
-        <v>1.106901286749591</v>
+        <v>0.9439321865275946</v>
       </c>
       <c r="K19">
-        <v>1.106584143086504</v>
+        <v>0.9488940956649946</v>
       </c>
       <c r="L19">
-        <v>1.103858578709032</v>
+        <v>0.9510729646934536</v>
       </c>
       <c r="M19">
-        <v>1.112709393436663</v>
+        <v>0.9569661425241709</v>
       </c>
       <c r="N19">
-        <v>1.108473213540127</v>
+        <v>0.9452726785029989</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.100153097108677</v>
+        <v>0.9035053768987464</v>
       </c>
       <c r="D20">
-        <v>1.102503987360159</v>
+        <v>0.9250689024713843</v>
       </c>
       <c r="E20">
-        <v>1.099800241781375</v>
+        <v>0.9275563937076231</v>
       </c>
       <c r="F20">
-        <v>1.108656024051127</v>
+        <v>0.933368376226735</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.030948555577378</v>
+        <v>1.038559177158115</v>
       </c>
       <c r="J20">
-        <v>1.105946309637092</v>
+        <v>0.935339267280298</v>
       </c>
       <c r="K20">
-        <v>1.105660520053356</v>
+        <v>0.9405710322620899</v>
       </c>
       <c r="L20">
-        <v>1.102965037933165</v>
+        <v>0.9430050619117969</v>
       </c>
       <c r="M20">
-        <v>1.111793917996838</v>
+        <v>0.9486936017711067</v>
       </c>
       <c r="N20">
-        <v>1.107516880250592</v>
+        <v>0.9366675563247494</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.096645811171409</v>
+        <v>0.8670860789448886</v>
       </c>
       <c r="D21">
-        <v>1.099279840207658</v>
+        <v>0.8923138672236887</v>
       </c>
       <c r="E21">
-        <v>1.096673933599958</v>
+        <v>0.8957881320415038</v>
       </c>
       <c r="F21">
-        <v>1.105459214307723</v>
+        <v>0.9008635000546468</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030820633810166</v>
+        <v>1.035875501347503</v>
       </c>
       <c r="J21">
-        <v>1.102823006632003</v>
+        <v>0.9034238873153678</v>
       </c>
       <c r="K21">
-        <v>1.102639369701784</v>
+        <v>0.9096693599657617</v>
       </c>
       <c r="L21">
-        <v>1.100041996210248</v>
+        <v>0.9130549723276734</v>
       </c>
       <c r="M21">
-        <v>1.108798685403352</v>
+        <v>0.9180024900981548</v>
       </c>
       <c r="N21">
-        <v>1.104389141796987</v>
+        <v>0.9047068528595239</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.09442552246328</v>
+        <v>0.8387849277810693</v>
       </c>
       <c r="D22">
-        <v>1.097238327995991</v>
+        <v>0.8669722018094647</v>
       </c>
       <c r="E22">
-        <v>1.094694205827996</v>
+        <v>0.8712242436276051</v>
       </c>
       <c r="F22">
-        <v>1.103434470552045</v>
+        <v>0.8757497346894367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030736519240048</v>
+        <v>1.033816294729059</v>
       </c>
       <c r="J22">
-        <v>1.100844557651044</v>
+        <v>0.8786893555890463</v>
       </c>
       <c r="K22">
-        <v>1.100725329258794</v>
+        <v>0.8857362388998874</v>
       </c>
       <c r="L22">
-        <v>1.098189890184713</v>
+        <v>0.8898655298837098</v>
       </c>
       <c r="M22">
-        <v>1.10690050839386</v>
+        <v>0.894262165502236</v>
       </c>
       <c r="N22">
-        <v>1.102407883191544</v>
+        <v>0.8799371952610604</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.095604006321375</v>
+        <v>0.8544835519911276</v>
       </c>
       <c r="D23">
-        <v>1.098321964344612</v>
+        <v>0.8810159632338546</v>
       </c>
       <c r="E23">
-        <v>1.095745062640598</v>
+        <v>0.8848352361111781</v>
       </c>
       <c r="F23">
-        <v>1.104509257019102</v>
+        <v>0.889663105065902</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030781461088725</v>
+        <v>1.034954740777021</v>
       </c>
       <c r="J23">
-        <v>1.101894795034212</v>
+        <v>0.892401205125371</v>
       </c>
       <c r="K23">
-        <v>1.101741404346822</v>
+        <v>0.8990018687575628</v>
       </c>
       <c r="L23">
-        <v>1.099173108131329</v>
+        <v>0.902718081943647</v>
       </c>
       <c r="M23">
-        <v>1.107908214574475</v>
+        <v>0.9074173930533762</v>
       </c>
       <c r="N23">
-        <v>1.10345961203226</v>
+        <v>0.8936685171964981</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.100211648361081</v>
+        <v>0.9040532516645094</v>
       </c>
       <c r="D24">
-        <v>1.102557803894004</v>
+        <v>0.9255627436025647</v>
       </c>
       <c r="E24">
-        <v>1.099852422392712</v>
+        <v>0.9280354910364157</v>
       </c>
       <c r="F24">
-        <v>1.108709375070789</v>
+        <v>0.9338587748107957</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.030950638133713</v>
+        <v>1.038599695007052</v>
       </c>
       <c r="J24">
-        <v>1.105998429645169</v>
+        <v>0.9358199663359515</v>
       </c>
       <c r="K24">
-        <v>1.105710930320843</v>
+        <v>0.9410366054072261</v>
       </c>
       <c r="L24">
-        <v>1.103013807435717</v>
+        <v>0.9434563520893129</v>
       </c>
       <c r="M24">
-        <v>1.111843886345795</v>
+        <v>0.9491562863773128</v>
       </c>
       <c r="N24">
-        <v>1.107569074275059</v>
+        <v>0.9371489380281989</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.105496039281522</v>
+        <v>0.9480211994658579</v>
       </c>
       <c r="D25">
-        <v>1.107413730197124</v>
+        <v>0.9652832385818995</v>
       </c>
       <c r="E25">
-        <v>1.104560336963234</v>
+        <v>0.9665801022102745</v>
       </c>
       <c r="F25">
-        <v>1.113521983335021</v>
+        <v>0.9733275720922528</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03113109035066</v>
+        <v>1.041843733407767</v>
       </c>
       <c r="J25">
-        <v>1.110699420692694</v>
+        <v>0.9744340669864454</v>
       </c>
       <c r="K25">
-        <v>1.110256991706428</v>
+        <v>0.9784455072815926</v>
       </c>
       <c r="L25">
-        <v>1.10741137386605</v>
+        <v>0.9797203641771</v>
       </c>
       <c r="M25">
-        <v>1.116348745004027</v>
+        <v>0.9863545537510233</v>
       </c>
       <c r="N25">
-        <v>1.112276741269082</v>
+        <v>0.9758178751307162</v>
       </c>
     </row>
   </sheetData>
